--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.116071</v>
+        <v>0.2779676666666667</v>
       </c>
       <c r="H2">
-        <v>0.348213</v>
+        <v>0.8339030000000001</v>
       </c>
       <c r="I2">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511973</v>
       </c>
       <c r="J2">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2239893333333333</v>
+        <v>0.5063493333333333</v>
       </c>
       <c r="N2">
-        <v>0.671968</v>
+        <v>1.519048</v>
       </c>
       <c r="O2">
-        <v>0.1254912741126999</v>
+        <v>0.2249479703936953</v>
       </c>
       <c r="P2">
-        <v>0.1254912741126999</v>
+        <v>0.2249479703936954</v>
       </c>
       <c r="Q2">
-        <v>0.02599866590933333</v>
+        <v>0.1407487427048889</v>
       </c>
       <c r="R2">
-        <v>0.233987993184</v>
+        <v>1.266738684344</v>
       </c>
       <c r="S2">
-        <v>0.0061732530936561</v>
+        <v>0.01893688119961482</v>
       </c>
       <c r="T2">
-        <v>0.0061732530936561</v>
+        <v>0.01893688119961483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.116071</v>
+        <v>0.2779676666666667</v>
       </c>
       <c r="H3">
-        <v>0.348213</v>
+        <v>0.8339030000000001</v>
       </c>
       <c r="I3">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511973</v>
       </c>
       <c r="J3">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.502184</v>
       </c>
       <c r="O3">
-        <v>0.6540393773767675</v>
+        <v>0.5186203350685913</v>
       </c>
       <c r="P3">
-        <v>0.6540393773767676</v>
+        <v>0.5186203350685914</v>
       </c>
       <c r="Q3">
-        <v>0.1355006663546666</v>
+        <v>0.3244979715724444</v>
       </c>
       <c r="R3">
-        <v>1.219505997192</v>
+        <v>2.920481744152</v>
       </c>
       <c r="S3">
-        <v>0.03217395502844315</v>
+        <v>0.04365921442060543</v>
       </c>
       <c r="T3">
-        <v>0.03217395502844316</v>
+        <v>0.04365921442060544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.116071</v>
+        <v>0.2779676666666667</v>
       </c>
       <c r="H4">
-        <v>0.348213</v>
+        <v>0.8339030000000001</v>
       </c>
       <c r="I4">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511973</v>
       </c>
       <c r="J4">
-        <v>0.04919268799607603</v>
+        <v>0.08418338323511974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3935156666666667</v>
+        <v>0.5731053333333334</v>
       </c>
       <c r="N4">
-        <v>1.180547</v>
+        <v>1.719316</v>
       </c>
       <c r="O4">
-        <v>0.2204693485105325</v>
+        <v>0.2546046238600799</v>
       </c>
       <c r="P4">
-        <v>0.2204693485105326</v>
+        <v>0.25460462386008</v>
       </c>
       <c r="Q4">
-        <v>0.04567575694566666</v>
+        <v>0.1593047522608889</v>
       </c>
       <c r="R4">
-        <v>0.411081812511</v>
+        <v>1.433742770348</v>
       </c>
       <c r="S4">
-        <v>0.01084547987397678</v>
+        <v>0.02143347862384662</v>
       </c>
       <c r="T4">
-        <v>0.01084547987397678</v>
+        <v>0.02143347862384663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04377633333333333</v>
+        <v>0.2779676666666667</v>
       </c>
       <c r="H5">
-        <v>0.131329</v>
+        <v>0.8339030000000001</v>
       </c>
       <c r="I5">
-        <v>0.01855308825872862</v>
+        <v>0.08418338323511973</v>
       </c>
       <c r="J5">
-        <v>0.01855308825872862</v>
+        <v>0.08418338323511974</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2239893333333333</v>
+        <v>0.004112666666666666</v>
       </c>
       <c r="N5">
-        <v>0.671968</v>
+        <v>0.012338</v>
       </c>
       <c r="O5">
-        <v>0.1254912741126999</v>
+        <v>0.001827070677633237</v>
       </c>
       <c r="P5">
-        <v>0.1254912741126999</v>
+        <v>0.001827070677633237</v>
       </c>
       <c r="Q5">
-        <v>0.009805431719111113</v>
+        <v>0.001143188357111111</v>
       </c>
       <c r="R5">
-        <v>0.08824888547200001</v>
+        <v>0.010288695214</v>
       </c>
       <c r="S5">
-        <v>0.002328250684313228</v>
+        <v>0.0001538089910528487</v>
       </c>
       <c r="T5">
-        <v>0.002328250684313228</v>
+        <v>0.0001538089910528487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>0.131329</v>
       </c>
       <c r="I6">
-        <v>0.01855308825872862</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="J6">
-        <v>0.01855308825872862</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.167394666666667</v>
+        <v>0.5063493333333333</v>
       </c>
       <c r="N6">
-        <v>3.502184</v>
+        <v>1.519048</v>
       </c>
       <c r="O6">
-        <v>0.6540393773767675</v>
+        <v>0.2249479703936953</v>
       </c>
       <c r="P6">
-        <v>0.6540393773767676</v>
+        <v>0.2249479703936954</v>
       </c>
       <c r="Q6">
-        <v>0.05110425805955555</v>
+        <v>0.02216611719911111</v>
       </c>
       <c r="R6">
-        <v>0.459938322536</v>
+        <v>0.199495054792</v>
       </c>
       <c r="S6">
-        <v>0.01213445029315508</v>
+        <v>0.002982315294541709</v>
       </c>
       <c r="T6">
-        <v>0.01213445029315509</v>
+        <v>0.00298231529454171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>0.131329</v>
       </c>
       <c r="I7">
-        <v>0.01855308825872862</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="J7">
-        <v>0.01855308825872862</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3935156666666667</v>
+        <v>1.167394666666667</v>
       </c>
       <c r="N7">
-        <v>1.180547</v>
+        <v>3.502184</v>
       </c>
       <c r="O7">
-        <v>0.2204693485105325</v>
+        <v>0.5186203350685913</v>
       </c>
       <c r="P7">
-        <v>0.2204693485105326</v>
+        <v>0.5186203350685914</v>
       </c>
       <c r="Q7">
-        <v>0.01722667299588889</v>
+        <v>0.05110425805955555</v>
       </c>
       <c r="R7">
-        <v>0.155040056963</v>
+        <v>0.459938322536</v>
       </c>
       <c r="S7">
-        <v>0.004090387281260309</v>
+        <v>0.006875764891892329</v>
       </c>
       <c r="T7">
-        <v>0.00409038728126031</v>
+        <v>0.006875764891892332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.124008333333333</v>
+        <v>0.04377633333333333</v>
       </c>
       <c r="H8">
-        <v>6.372025</v>
+        <v>0.131329</v>
       </c>
       <c r="I8">
-        <v>0.9001876372455836</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="J8">
-        <v>0.9001876372455835</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2239893333333333</v>
+        <v>0.5731053333333334</v>
       </c>
       <c r="N8">
-        <v>0.671968</v>
+        <v>1.719316</v>
       </c>
       <c r="O8">
-        <v>0.1254912741126999</v>
+        <v>0.2546046238600799</v>
       </c>
       <c r="P8">
-        <v>0.1254912741126999</v>
+        <v>0.25460462386008</v>
       </c>
       <c r="Q8">
-        <v>0.4757552105777778</v>
+        <v>0.02508845010711111</v>
       </c>
       <c r="R8">
-        <v>4.2817968952</v>
+        <v>0.225796050964</v>
       </c>
       <c r="S8">
-        <v>0.1129656935384492</v>
+        <v>0.003375497287083932</v>
       </c>
       <c r="T8">
-        <v>0.1129656935384492</v>
+        <v>0.003375497287083933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.124008333333333</v>
+        <v>0.04377633333333333</v>
       </c>
       <c r="H9">
-        <v>6.372025</v>
+        <v>0.131329</v>
       </c>
       <c r="I9">
-        <v>0.9001876372455836</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="J9">
-        <v>0.9001876372455835</v>
+        <v>0.01325780041190047</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.167394666666667</v>
+        <v>0.004112666666666666</v>
       </c>
       <c r="N9">
-        <v>3.502184</v>
+        <v>0.012338</v>
       </c>
       <c r="O9">
-        <v>0.6540393773767675</v>
+        <v>0.001827070677633237</v>
       </c>
       <c r="P9">
-        <v>0.6540393773767676</v>
+        <v>0.001827070677633237</v>
       </c>
       <c r="Q9">
-        <v>2.479556000288889</v>
+        <v>0.0001800374668888889</v>
       </c>
       <c r="R9">
-        <v>22.3160040026</v>
+        <v>0.001620337202</v>
       </c>
       <c r="S9">
-        <v>0.588758161786365</v>
+        <v>2.42229383824972E-05</v>
       </c>
       <c r="T9">
-        <v>0.588758161786365</v>
+        <v>2.422293838249721E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.124008333333333</v>
+        <v>2.856196666666667</v>
       </c>
       <c r="H10">
-        <v>6.372025</v>
+        <v>8.56859</v>
       </c>
       <c r="I10">
-        <v>0.9001876372455836</v>
+        <v>0.8650081553305535</v>
       </c>
       <c r="J10">
-        <v>0.9001876372455835</v>
+        <v>0.8650081553305536</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3935156666666667</v>
+        <v>0.5063493333333333</v>
       </c>
       <c r="N10">
-        <v>1.180547</v>
+        <v>1.519048</v>
       </c>
       <c r="O10">
-        <v>0.2204693485105325</v>
+        <v>0.2249479703936953</v>
       </c>
       <c r="P10">
-        <v>0.2204693485105326</v>
+        <v>0.2249479703936954</v>
       </c>
       <c r="Q10">
-        <v>0.8358305552972222</v>
+        <v>1.446233278035556</v>
       </c>
       <c r="R10">
-        <v>7.522474997675</v>
+        <v>13.01609950232</v>
       </c>
       <c r="S10">
-        <v>0.1984637819207694</v>
+        <v>0.1945818289156024</v>
       </c>
       <c r="T10">
-        <v>0.1984637819207694</v>
+        <v>0.1945818289156025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07566166666666667</v>
+        <v>2.856196666666667</v>
       </c>
       <c r="H11">
-        <v>0.226985</v>
+        <v>8.56859</v>
       </c>
       <c r="I11">
-        <v>0.03206658649961179</v>
+        <v>0.8650081553305535</v>
       </c>
       <c r="J11">
-        <v>0.03206658649961178</v>
+        <v>0.8650081553305536</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2239893333333333</v>
+        <v>1.167394666666667</v>
       </c>
       <c r="N11">
-        <v>0.671968</v>
+        <v>3.502184</v>
       </c>
       <c r="O11">
-        <v>0.1254912741126999</v>
+        <v>0.5186203350685913</v>
       </c>
       <c r="P11">
-        <v>0.1254912741126999</v>
+        <v>0.5186203350685914</v>
       </c>
       <c r="Q11">
-        <v>0.01694740627555556</v>
+        <v>3.334308755617778</v>
       </c>
       <c r="R11">
-        <v>0.15252665648</v>
+        <v>30.00877880056</v>
       </c>
       <c r="S11">
-        <v>0.004024076796281386</v>
+        <v>0.4486108193545957</v>
       </c>
       <c r="T11">
-        <v>0.004024076796281385</v>
+        <v>0.4486108193545959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07566166666666667</v>
+        <v>2.856196666666667</v>
       </c>
       <c r="H12">
-        <v>0.226985</v>
+        <v>8.56859</v>
       </c>
       <c r="I12">
-        <v>0.03206658649961179</v>
+        <v>0.8650081553305535</v>
       </c>
       <c r="J12">
-        <v>0.03206658649961178</v>
+        <v>0.8650081553305536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.167394666666667</v>
+        <v>0.5731053333333334</v>
       </c>
       <c r="N12">
-        <v>3.502184</v>
+        <v>1.719316</v>
       </c>
       <c r="O12">
-        <v>0.6540393773767675</v>
+        <v>0.2546046238600799</v>
       </c>
       <c r="P12">
-        <v>0.6540393773767676</v>
+        <v>0.25460462386008</v>
       </c>
       <c r="Q12">
-        <v>0.08832702613777778</v>
+        <v>1.636901542715556</v>
       </c>
       <c r="R12">
-        <v>0.7949432352399999</v>
+        <v>14.73211388444</v>
       </c>
       <c r="S12">
-        <v>0.02097281026880436</v>
+        <v>0.2202350760238372</v>
       </c>
       <c r="T12">
-        <v>0.02097281026880436</v>
+        <v>0.2202350760238372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.856196666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.56859</v>
+      </c>
+      <c r="I13">
+        <v>0.8650081553305535</v>
+      </c>
+      <c r="J13">
+        <v>0.8650081553305536</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.004112666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.012338</v>
+      </c>
+      <c r="O13">
+        <v>0.001827070677633237</v>
+      </c>
+      <c r="P13">
+        <v>0.001827070677633237</v>
+      </c>
+      <c r="Q13">
+        <v>0.01174658482444444</v>
+      </c>
+      <c r="R13">
+        <v>0.10571926342</v>
+      </c>
+      <c r="S13">
+        <v>0.00158043103651807</v>
+      </c>
+      <c r="T13">
+        <v>0.001580431036518071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1239896666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.371969</v>
+      </c>
+      <c r="I14">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="J14">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5063493333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.519048</v>
+      </c>
+      <c r="O14">
+        <v>0.2249479703936953</v>
+      </c>
+      <c r="P14">
+        <v>0.2249479703936954</v>
+      </c>
+      <c r="Q14">
+        <v>0.06278208505688888</v>
+      </c>
+      <c r="R14">
+        <v>0.5650387655119999</v>
+      </c>
+      <c r="S14">
+        <v>0.008446944983936411</v>
+      </c>
+      <c r="T14">
+        <v>0.008446944983936415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1239896666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.371969</v>
+      </c>
+      <c r="I15">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="J15">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.167394666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.502184</v>
+      </c>
+      <c r="O15">
+        <v>0.5186203350685913</v>
+      </c>
+      <c r="P15">
+        <v>0.5186203350685914</v>
+      </c>
+      <c r="Q15">
+        <v>0.1447448755884444</v>
+      </c>
+      <c r="R15">
+        <v>1.302703880296</v>
+      </c>
+      <c r="S15">
+        <v>0.01947453640149775</v>
+      </c>
+      <c r="T15">
+        <v>0.01947453640149776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.07566166666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.226985</v>
-      </c>
-      <c r="I13">
-        <v>0.03206658649961179</v>
-      </c>
-      <c r="J13">
-        <v>0.03206658649961178</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3935156666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.180547</v>
-      </c>
-      <c r="O13">
-        <v>0.2204693485105325</v>
-      </c>
-      <c r="P13">
-        <v>0.2204693485105326</v>
-      </c>
-      <c r="Q13">
-        <v>0.02977405119944444</v>
-      </c>
-      <c r="R13">
-        <v>0.267966460795</v>
-      </c>
-      <c r="S13">
-        <v>0.007069699434526049</v>
-      </c>
-      <c r="T13">
-        <v>0.007069699434526049</v>
+      <c r="G16">
+        <v>0.1239896666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.371969</v>
+      </c>
+      <c r="I16">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="J16">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5731053333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.719316</v>
+      </c>
+      <c r="O16">
+        <v>0.2546046238600799</v>
+      </c>
+      <c r="P16">
+        <v>0.25460462386008</v>
+      </c>
+      <c r="Q16">
+        <v>0.07105913924488889</v>
+      </c>
+      <c r="R16">
+        <v>0.639532253204</v>
+      </c>
+      <c r="S16">
+        <v>0.00956057192531218</v>
+      </c>
+      <c r="T16">
+        <v>0.009560571925312181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1239896666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.371969</v>
+      </c>
+      <c r="I17">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="J17">
+        <v>0.03755066102242617</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.004112666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.012338</v>
+      </c>
+      <c r="O17">
+        <v>0.001827070677633237</v>
+      </c>
+      <c r="P17">
+        <v>0.001827070677633237</v>
+      </c>
+      <c r="Q17">
+        <v>0.0005099281691111111</v>
+      </c>
+      <c r="R17">
+        <v>0.004589353522</v>
+      </c>
+      <c r="S17">
+        <v>6.860771167982015E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.860771167982018E-05</v>
       </c>
     </row>
   </sheetData>
